--- a/database/test.xlsx
+++ b/database/test.xlsx
@@ -18,9 +18,91 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+  <si>
+    <t>Bloc</t>
+  </si>
+  <si>
+    <t>longueur</t>
+  </si>
+  <si>
+    <t>largeur</t>
+  </si>
+  <si>
+    <t>hauteur</t>
+  </si>
+  <si>
+    <t>coût de production</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>origine</t>
+  </si>
+  <si>
+    <t>Forme usuelle</t>
+  </si>
+  <si>
+    <t>prix de vente</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>volume (m^3)</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>quantité</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>marge</t>
+  </si>
+  <si>
+    <t>rapport prix volume (Ar/m^3)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -37,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,14 +127,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -69,7 +173,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +218,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +253,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +435,315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3">
+        <f>38250000</f>
+        <v>38250000</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="5">
+        <f>B3*C3*D3</f>
+        <v>434.59999999999991</v>
+      </c>
+      <c r="H3" s="5">
+        <f>G3*2%</f>
+        <v>8.6919999999999984</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="N3" s="3">
+        <v>125000</v>
+      </c>
+      <c r="O3" s="4">
+        <f>K3*L3*M3</f>
+        <v>0.96</v>
+      </c>
+      <c r="P3" s="3">
+        <f>N3/(K3*L3*M3)</f>
+        <v>130208.33333333334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:E6" si="0">38250000</f>
+        <v>38250000</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G6" si="1">B4*C4*D4</f>
+        <v>434.59999999999991</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H6" si="2">G4*2%</f>
+        <v>8.6919999999999984</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="N4" s="3">
+        <v>100000</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" ref="O4:O6" si="3">K4*L4*M4</f>
+        <v>0.7</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" ref="P4:P6" si="4">N4/(K4*L4*M4)</f>
+        <v>142857.14285714287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>38250000</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
+        <v>434.59999999999991</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="2"/>
+        <v>8.6919999999999984</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>60000</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="3"/>
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="4"/>
+        <v>175438.59649122806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>38250000</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>434.59999999999991</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="2"/>
+        <v>8.6919999999999984</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>100</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="4"/>
+        <v>99999.999999999971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database/test.xlsx
+++ b/database/test.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4FA5CF-E0E2-4699-AE76-A2D4BB1228A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Bloc</t>
   </si>
@@ -85,17 +97,60 @@
   </si>
   <si>
     <t>rapport prix volume (Ar/m^3)</t>
+  </si>
+  <si>
+    <t>Transformation</t>
+  </si>
+  <si>
+    <t>Transformation 1</t>
+  </si>
+  <si>
+    <t>bloc d'origine</t>
+  </si>
+  <si>
+    <t>volume unité</t>
+  </si>
+  <si>
+    <t>Reste</t>
+  </si>
+  <si>
+    <t>bloc origine</t>
+  </si>
+  <si>
+    <t>volume origine</t>
+  </si>
+  <si>
+    <t>Marge</t>
+  </si>
+  <si>
+    <t>volume minimum requis</t>
+  </si>
+  <si>
+    <t>volume reste</t>
+  </si>
+  <si>
+    <t>volume produits</t>
+  </si>
+  <si>
+    <t>volume manquant</t>
+  </si>
+  <si>
+    <t>volume après tranformation</t>
+  </si>
+  <si>
+    <t>valide</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;???\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +159,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -119,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -142,18 +205,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -434,11 +606,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,8 +619,11 @@
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -712,38 +887,220 @@
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="J12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
+      <c r="J13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="7">
+        <f>O3</f>
+        <v>0.96</v>
+      </c>
+      <c r="L15" s="1">
+        <v>50</v>
+      </c>
+      <c r="M15" s="6">
+        <f>K15*L15</f>
+        <v>48</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="9">
+        <f>O5</f>
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="L16" s="8">
+        <v>60</v>
+      </c>
+      <c r="M16" s="10">
+        <f>K16*L16</f>
+        <v>20.520000000000003</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
+      <c r="J17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J19" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="19">
+        <f>G3</f>
+        <v>434.59999999999991</v>
+      </c>
+      <c r="L19" s="8">
+        <v>9</v>
+      </c>
+      <c r="M19" s="8">
+        <v>8</v>
+      </c>
+      <c r="N19" s="8">
+        <v>5</v>
+      </c>
+      <c r="O19" s="8">
+        <f>L19*M19*N19</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J22" s="5">
+        <f>H3</f>
+        <v>8.6919999999999984</v>
+      </c>
+      <c r="K22" s="5">
+        <f>G3-J22</f>
+        <v>425.9079999999999</v>
+      </c>
+      <c r="L22" s="1">
+        <f>O19</f>
+        <v>360</v>
+      </c>
+      <c r="M22" s="6">
+        <f>SUM(M15:M16)</f>
+        <v>68.52000000000001</v>
+      </c>
+      <c r="N22" s="6">
+        <f>L22+M22</f>
+        <v>428.52</v>
+      </c>
+      <c r="O22" s="6">
+        <f>G3-N22</f>
+        <v>6.0799999999999272</v>
+      </c>
+      <c r="P22" s="1" t="str">
+        <f>IF(N22&gt;=K22,"oui","non")</f>
+        <v>oui</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="J20:P20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/test.xlsx
+++ b/database/test.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4FA5CF-E0E2-4699-AE76-A2D4BB1228A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -30,8 +26,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
   <si>
     <t>Bloc</t>
   </si>
@@ -48,121 +66,172 @@
     <t>coût de production</t>
   </si>
   <si>
+    <t>origine</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>marge</t>
+  </si>
+  <si>
+    <t>Forme usuelle</t>
+  </si>
+  <si>
+    <t>prix de vente</t>
+  </si>
+  <si>
+    <t>volume (m^3)</t>
+  </si>
+  <si>
+    <t>rapport prix volume (Ar/m^3)</t>
+  </si>
+  <si>
     <t>B1</t>
   </si>
   <si>
-    <t>origine</t>
-  </si>
-  <si>
-    <t>Forme usuelle</t>
-  </si>
-  <si>
-    <t>prix de vente</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
+    <t>B2</t>
+  </si>
+  <si>
     <t>U2</t>
   </si>
   <si>
+    <t>B3</t>
+  </si>
+  <si>
     <t>U3</t>
   </si>
   <si>
+    <t>B4</t>
+  </si>
+  <si>
     <t>U4</t>
   </si>
   <si>
-    <t>volume (m^3)</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
+    <t>Stock formes usuelles</t>
+  </si>
+  <si>
+    <t>quantité</t>
+  </si>
+  <si>
+    <t>coût de production unitaire</t>
+  </si>
+  <si>
+    <t>prix de vente unitaire</t>
+  </si>
+  <si>
+    <t>Transformation</t>
+  </si>
+  <si>
+    <t>Transformation 1</t>
+  </si>
+  <si>
+    <t>volume unité</t>
+  </si>
+  <si>
+    <t>bloc d'origine</t>
+  </si>
+  <si>
+    <t>prix  de vente unitaire</t>
+  </si>
+  <si>
+    <t>coût de production origine</t>
+  </si>
+  <si>
+    <t>coût de production reste</t>
+  </si>
+  <si>
+    <t>coût de production formes usuelles</t>
+  </si>
+  <si>
+    <t>après transformation</t>
+  </si>
+  <si>
+    <t>perte</t>
+  </si>
+  <si>
+    <t>Reste</t>
+  </si>
+  <si>
+    <t>bloc origine</t>
+  </si>
+  <si>
+    <t>volume origine</t>
+  </si>
+  <si>
+    <t>Stock blocs</t>
+  </si>
+  <si>
+    <t>Marge</t>
+  </si>
+  <si>
+    <t>volume minimum requis</t>
+  </si>
+  <si>
+    <t>volume reste</t>
+  </si>
+  <si>
+    <t>volume produits</t>
+  </si>
+  <si>
+    <t>volume après tranformation</t>
+  </si>
+  <si>
+    <t>volume manquant</t>
+  </si>
+  <si>
+    <t>valide</t>
+  </si>
+  <si>
+    <t>Méthode 1 : produits finis</t>
+  </si>
+  <si>
+    <t>bénéfice</t>
   </si>
   <si>
     <t>Article</t>
   </si>
   <si>
-    <t>quantité</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>marge</t>
-  </si>
-  <si>
-    <t>rapport prix volume (Ar/m^3)</t>
-  </si>
-  <si>
-    <t>Transformation</t>
-  </si>
-  <si>
-    <t>Transformation 1</t>
-  </si>
-  <si>
-    <t>bloc d'origine</t>
-  </si>
-  <si>
-    <t>volume unité</t>
-  </si>
-  <si>
-    <t>Reste</t>
-  </si>
-  <si>
-    <t>bloc origine</t>
-  </si>
-  <si>
-    <t>volume origine</t>
-  </si>
-  <si>
-    <t>Marge</t>
-  </si>
-  <si>
-    <t>volume minimum requis</t>
-  </si>
-  <si>
-    <t>volume reste</t>
-  </si>
-  <si>
-    <t>volume produits</t>
-  </si>
-  <si>
-    <t>volume manquant</t>
-  </si>
-  <si>
-    <t>volume après tranformation</t>
-  </si>
-  <si>
-    <t>valide</t>
+    <t>Méthode 2 : maximum de bénéfice</t>
+  </si>
+  <si>
+    <t>volume unitaire</t>
+  </si>
+  <si>
+    <t>quantité faisable</t>
+  </si>
+  <si>
+    <t>Forme usuelle la plus rentable</t>
+  </si>
+  <si>
+    <t>Méthode 3 : minimum de perte</t>
+  </si>
+  <si>
+    <t>Forme usuelle la plus petite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;???\ _€_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;???\ _€_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??.0\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,19 +239,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -192,63 +598,39 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -257,7 +639,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -265,80 +647,417 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -387,7 +1106,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -422,7 +1141,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -596,38 +1315,44 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:P22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:V56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="16.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="27.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="19.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="13.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="9.42857142857143" customWidth="1"/>
+    <col min="8" max="9" width="17.4285714285714" customWidth="1"/>
+    <col min="10" max="10" width="13.7142857142857" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="15.5714285714286" customWidth="1"/>
+    <col min="14" max="14" width="26.1428571428571" customWidth="1"/>
+    <col min="15" max="15" width="27.7142857142857" customWidth="1"/>
+    <col min="16" max="16" width="27.4285714285714" customWidth="1"/>
+    <col min="17" max="17" width="29.7142857142857" customWidth="1"/>
+    <col min="18" max="18" width="26.8571428571429" customWidth="1"/>
+    <col min="19" max="19" width="25" customWidth="1"/>
+    <col min="20" max="20" width="35.7142857142857" customWidth="1"/>
+    <col min="21" max="21" width="21.4285714285714" customWidth="1"/>
+    <col min="22" max="22" width="12.7142857142857"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,16 +1369,16 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>1</v>
@@ -665,24 +1390,24 @@
         <v>3</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3">
         <v>10.6</v>
       </c>
       <c r="C3" s="3">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D3" s="3">
         <v>5</v>
@@ -692,16 +1417,16 @@
         <v>38250000</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <f>B3*C3*D3</f>
-        <v>434.59999999999991</v>
-      </c>
-      <c r="H3" s="5">
+        <v>434.6</v>
+      </c>
+      <c r="H3" s="4">
         <f>G3*2%</f>
-        <v>8.6919999999999984</v>
+        <v>8.692</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K3" s="3">
         <v>2</v>
@@ -715,16 +1440,16 @@
       <c r="N3" s="3">
         <v>125000</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="13">
         <f>K3*L3*M3</f>
         <v>0.96</v>
       </c>
       <c r="P3" s="3">
         <f>N3/(K3*L3*M3)</f>
-        <v>130208.33333333334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>130208.333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -732,7 +1457,7 @@
         <v>10.6</v>
       </c>
       <c r="C4" s="3">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D4" s="3">
         <v>5</v>
@@ -742,16 +1467,16 @@
         <v>38250000</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f t="shared" ref="G4:G6" si="1">B4*C4*D4</f>
-        <v>434.59999999999991</v>
-      </c>
-      <c r="H4" s="5">
+        <v>434.6</v>
+      </c>
+      <c r="H4" s="4">
         <f t="shared" ref="H4:H6" si="2">G4*2%</f>
-        <v>8.6919999999999984</v>
+        <v>8.692</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K4" s="3">
         <v>2</v>
@@ -765,24 +1490,24 @@
       <c r="N4" s="3">
         <v>100000</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="13">
         <f t="shared" ref="O4:O6" si="3">K4*L4*M4</f>
         <v>0.7</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4:P6" si="4">N4/(K4*L4*M4)</f>
-        <v>142857.14285714287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>142857.142857143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3">
         <v>10.6</v>
       </c>
       <c r="C5" s="3">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D5" s="3">
         <v>5</v>
@@ -792,16 +1517,16 @@
         <v>38250000</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>434.59999999999991</v>
-      </c>
-      <c r="H5" s="5">
+        <v>434.6</v>
+      </c>
+      <c r="H5" s="4">
         <f t="shared" si="2"/>
-        <v>8.6919999999999984</v>
+        <v>8.692</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K5" s="3">
         <v>1.9</v>
@@ -815,24 +1540,24 @@
       <c r="N5" s="3">
         <v>60000</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="13">
         <f t="shared" si="3"/>
-        <v>0.34200000000000003</v>
+        <v>0.342</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="4"/>
-        <v>175438.59649122806</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>175438.596491228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
         <v>10.6</v>
       </c>
       <c r="C6" s="3">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D6" s="3">
         <v>5</v>
@@ -842,16 +1567,16 @@
         <v>38250000</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f t="shared" si="1"/>
-        <v>434.59999999999991</v>
-      </c>
-      <c r="H6" s="5">
+        <v>434.6</v>
+      </c>
+      <c r="H6" s="4">
         <f t="shared" si="2"/>
-        <v>8.6919999999999984</v>
+        <v>8.692</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K6" s="3">
         <v>0.1</v>
@@ -865,242 +1590,1179 @@
       <c r="N6" s="3">
         <v>100</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="13">
         <f t="shared" si="3"/>
-        <v>1.0000000000000002E-3</v>
+        <v>0.001</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="4"/>
-        <v>99999.999999999971</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="16"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="str">
+        <f>J15</f>
+        <v>U1</v>
+      </c>
+      <c r="B13" s="1">
+        <f>L15</f>
+        <v>50</v>
+      </c>
+      <c r="C13" s="6">
+        <f>O15</f>
+        <v>84491.4864242982</v>
+      </c>
+      <c r="D13" s="7">
+        <f>P15</f>
+        <v>125000</v>
+      </c>
+      <c r="E13" s="8">
+        <f>$B13*C13</f>
+        <v>4224574.32121491</v>
+      </c>
+      <c r="F13" s="8">
+        <f>$B13*D13</f>
+        <v>6250000</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f>N15</f>
+        <v>B1</v>
+      </c>
       <c r="J13" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="J14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="1" t="str">
+        <f>J16</f>
+        <v>U3</v>
+      </c>
+      <c r="B14" s="1">
+        <f>L16</f>
+        <v>60</v>
+      </c>
+      <c r="C14" s="6">
+        <f>O16</f>
+        <v>30100.0920386562</v>
+      </c>
+      <c r="D14" s="7">
+        <f>P16</f>
+        <v>60000</v>
+      </c>
+      <c r="E14" s="8">
+        <f>$B14*C14</f>
+        <v>1806005.52231937</v>
+      </c>
+      <c r="F14" s="8">
+        <f>$B14*D14</f>
+        <v>3600000</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>N16</f>
+        <v>B1</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14" t="s">
+        <v>32</v>
+      </c>
+      <c r="V14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="7">
+        <v>13</v>
+      </c>
+      <c r="K15" s="6">
         <f>O3</f>
         <v>0.96</v>
       </c>
       <c r="L15" s="1">
         <v>50</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="21">
         <f>K15*L15</f>
         <v>48</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="O15" s="8">
+        <f>O3*$E$3/$G$3</f>
+        <v>84491.4864242982</v>
+      </c>
+      <c r="P15" s="7">
+        <f>N3</f>
+        <v>125000</v>
+      </c>
+      <c r="R15" s="34">
+        <f>E3</f>
+        <v>38250000</v>
+      </c>
+      <c r="S15" s="34">
+        <f>P19</f>
+        <v>31684307.4091118</v>
+      </c>
+      <c r="T15" s="35" cm="1">
+        <f t="array" ref="T15">SUMPRODUCT(L15:L16,O15:O16)</f>
+        <v>6030579.84353429</v>
+      </c>
+      <c r="U15" s="34">
+        <f>S15+T15</f>
+        <v>37714887.2526461</v>
+      </c>
+      <c r="V15" s="34">
+        <f>R15-U15</f>
+        <v>535112.747353882</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="J16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="9">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="1"/>
+      <c r="J16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="23">
         <f>O5</f>
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="L16" s="8">
+        <v>0.342</v>
+      </c>
+      <c r="L16" s="22">
         <v>60</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="24">
         <f>K16*L16</f>
-        <v>20.520000000000003</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>20.52</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="25">
+        <f>O5*$E$3/$G$3</f>
+        <v>30100.0920386562</v>
+      </c>
+      <c r="P16" s="7">
+        <f>N5</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="J17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="13"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="1" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="1"/>
+      <c r="J17" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+    </row>
+    <row r="18" spans="10:16">
+      <c r="J18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J19" s="18" t="s">
+      <c r="O18" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="10:16">
+      <c r="J19" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="28">
+        <f>G3</f>
+        <v>434.6</v>
+      </c>
+      <c r="L19" s="22">
+        <v>9</v>
+      </c>
+      <c r="M19" s="22">
+        <v>8</v>
+      </c>
+      <c r="N19" s="22">
         <v>5</v>
       </c>
-      <c r="K19" s="19">
-        <f>G3</f>
-        <v>434.59999999999991</v>
-      </c>
-      <c r="L19" s="8">
-        <v>9</v>
-      </c>
-      <c r="M19" s="8">
-        <v>8</v>
-      </c>
-      <c r="N19" s="8">
-        <v>5</v>
-      </c>
-      <c r="O19" s="8">
+      <c r="O19" s="22">
         <f>L19*M19*N19</f>
         <v>360</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J20" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="13"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P19" s="7">
+        <f>O19*E3/G3</f>
+        <v>31684307.4091118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="31"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="J21" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J22" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>8.2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" ref="E22:E24" si="5">38250000</f>
+        <v>38250000</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="4">
+        <f t="shared" ref="G22:G24" si="6">B22*C22*D22</f>
+        <v>434.6</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" ref="H22:H24" si="7">G22*2%</f>
+        <v>8.692</v>
+      </c>
+      <c r="J22" s="4">
         <f>H3</f>
-        <v>8.6919999999999984</v>
-      </c>
-      <c r="K22" s="5">
+        <v>8.692</v>
+      </c>
+      <c r="K22" s="4">
         <f>G3-J22</f>
-        <v>425.9079999999999</v>
+        <v>425.908</v>
       </c>
       <c r="L22" s="1">
         <f>O19</f>
         <v>360</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="21">
         <f>SUM(M15:M16)</f>
-        <v>68.52000000000001</v>
-      </c>
-      <c r="N22" s="6">
+        <v>68.52</v>
+      </c>
+      <c r="N22" s="21">
         <f>L22+M22</f>
         <v>428.52</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="21">
         <f>G3-N22</f>
-        <v>6.0799999999999272</v>
+        <v>6.07999999999993</v>
       </c>
       <c r="P22" s="1" t="str">
         <f>IF(N22&gt;=K22,"oui","non")</f>
         <v>oui</v>
       </c>
     </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="C23" s="3">
+        <v>8.2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="5"/>
+        <v>38250000</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="4">
+        <f t="shared" si="6"/>
+        <v>434.6</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="7"/>
+        <v>8.692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>31684307.4091118</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="6"/>
+        <v>360</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="7"/>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="11">
+        <f>SUM(E33:E34)</f>
+        <v>6030579.84353429</v>
+      </c>
+      <c r="B31" s="11">
+        <f>SUM(F33:F34)</f>
+        <v>9850000</v>
+      </c>
+      <c r="C31" s="11">
+        <f>B31-A31</f>
+        <v>3819420.15646571</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="5" t="str">
+        <f>A13</f>
+        <v>U1</v>
+      </c>
+      <c r="B33" s="5">
+        <f t="shared" ref="B33:G33" si="8">B13</f>
+        <v>50</v>
+      </c>
+      <c r="C33" s="12">
+        <f t="shared" si="8"/>
+        <v>84491.4864242982</v>
+      </c>
+      <c r="D33" s="12">
+        <f t="shared" si="8"/>
+        <v>125000</v>
+      </c>
+      <c r="E33" s="12">
+        <f t="shared" si="8"/>
+        <v>4224574.32121491</v>
+      </c>
+      <c r="F33" s="12">
+        <f t="shared" si="8"/>
+        <v>6250000</v>
+      </c>
+      <c r="G33" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="5" t="str">
+        <f>A14</f>
+        <v>U3</v>
+      </c>
+      <c r="B34" s="5">
+        <f>B14</f>
+        <v>60</v>
+      </c>
+      <c r="C34" s="12">
+        <f>C14</f>
+        <v>30100.0920386562</v>
+      </c>
+      <c r="D34" s="12">
+        <f>D14</f>
+        <v>60000</v>
+      </c>
+      <c r="E34" s="12">
+        <f>E14</f>
+        <v>1806005.52231937</v>
+      </c>
+      <c r="F34" s="12">
+        <f>F14</f>
+        <v>3600000</v>
+      </c>
+      <c r="G34" s="5" t="str">
+        <f>G14</f>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="11">
+        <f>SUM(E41:E45)</f>
+        <v>114214887.252646</v>
+      </c>
+      <c r="B39" s="11">
+        <f>SUM(F41:F45)</f>
+        <v>225370000</v>
+      </c>
+      <c r="C39" s="11">
+        <f>B39-A39</f>
+        <v>111155112.747354</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="5" t="str">
+        <f>A13</f>
+        <v>U1</v>
+      </c>
+      <c r="B41" s="5">
+        <f t="shared" ref="B41:G41" si="9">B13</f>
+        <v>50</v>
+      </c>
+      <c r="C41" s="12">
+        <f t="shared" si="9"/>
+        <v>84491.4864242982</v>
+      </c>
+      <c r="D41" s="12">
+        <f t="shared" si="9"/>
+        <v>125000</v>
+      </c>
+      <c r="E41" s="12">
+        <f t="shared" si="9"/>
+        <v>4224574.32121491</v>
+      </c>
+      <c r="F41" s="12">
+        <f t="shared" si="9"/>
+        <v>6250000</v>
+      </c>
+      <c r="G41" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>B1</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="K41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="5" t="str">
+        <f>A14</f>
+        <v>U3</v>
+      </c>
+      <c r="B42" s="5">
+        <f t="shared" ref="B42:G42" si="10">B14</f>
+        <v>60</v>
+      </c>
+      <c r="C42" s="12">
+        <f t="shared" si="10"/>
+        <v>30100.0920386562</v>
+      </c>
+      <c r="D42" s="12">
+        <f t="shared" si="10"/>
+        <v>60000</v>
+      </c>
+      <c r="E42" s="12">
+        <f t="shared" si="10"/>
+        <v>1806005.52231937</v>
+      </c>
+      <c r="F42" s="12">
+        <f t="shared" si="10"/>
+        <v>3600000</v>
+      </c>
+      <c r="G42" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>B1</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="K42" s="1" t="str">
+        <f>J5</f>
+        <v>U3</v>
+      </c>
+      <c r="L42" s="32">
+        <f t="shared" ref="L42:Q42" si="11">K5</f>
+        <v>1.9</v>
+      </c>
+      <c r="M42" s="32">
+        <f t="shared" si="11"/>
+        <v>0.9</v>
+      </c>
+      <c r="N42" s="32">
+        <f t="shared" si="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="O42" s="32">
+        <f t="shared" si="11"/>
+        <v>60000</v>
+      </c>
+      <c r="P42" s="33">
+        <f t="shared" si="11"/>
+        <v>0.342</v>
+      </c>
+      <c r="Q42" s="32">
+        <f t="shared" si="11"/>
+        <v>175438.596491228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="5" t="str">
+        <f>A22</f>
+        <v>B2</v>
+      </c>
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
+      <c r="C43" s="7">
+        <f>E22</f>
+        <v>38250000</v>
+      </c>
+      <c r="D43" s="7">
+        <f>I43*$O$42</f>
+        <v>76200000</v>
+      </c>
+      <c r="E43" s="7">
+        <f>C43*B43</f>
+        <v>38250000</v>
+      </c>
+      <c r="F43" s="7">
+        <f>B43*D43</f>
+        <v>76200000</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="7">
+        <f>G22</f>
+        <v>434.6</v>
+      </c>
+      <c r="I43" s="7">
+        <f>ROUNDDOWN(H43/$P$42,0)</f>
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="5" t="str">
+        <f>A23</f>
+        <v>B3</v>
+      </c>
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
+      <c r="C44" s="7">
+        <f>E23</f>
+        <v>38250000</v>
+      </c>
+      <c r="D44" s="7">
+        <f>I44*$O$42</f>
+        <v>76200000</v>
+      </c>
+      <c r="E44" s="7">
+        <f>C44*B44</f>
+        <v>38250000</v>
+      </c>
+      <c r="F44" s="7">
+        <f>B44*D44</f>
+        <v>76200000</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="7">
+        <f>G23</f>
+        <v>434.6</v>
+      </c>
+      <c r="I44" s="7">
+        <f>ROUNDDOWN(H44/$P$42,0)</f>
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="5" t="str">
+        <f>A24</f>
+        <v>B4</v>
+      </c>
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45" s="7">
+        <f>E24</f>
+        <v>31684307.4091118</v>
+      </c>
+      <c r="D45" s="7">
+        <f>I45*$O$42</f>
+        <v>63120000</v>
+      </c>
+      <c r="E45" s="7">
+        <f>C45*B45</f>
+        <v>31684307.4091118</v>
+      </c>
+      <c r="F45" s="7">
+        <f>B45*D45</f>
+        <v>63120000</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="7">
+        <f>G24</f>
+        <v>360</v>
+      </c>
+      <c r="I45" s="7">
+        <f>ROUNDDOWN(H45/$P$42,0)</f>
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="11">
+        <f>SUM(E52:E56)</f>
+        <v>114214887.252646</v>
+      </c>
+      <c r="B50" s="11">
+        <f>SUM(F52:F56)</f>
+        <v>132770000</v>
+      </c>
+      <c r="C50" s="11">
+        <f>B50-A50</f>
+        <v>18555112.7473539</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="5" t="str">
+        <f>A13</f>
+        <v>U1</v>
+      </c>
+      <c r="B52" s="5">
+        <f t="shared" ref="B52:G52" si="12">B13</f>
+        <v>50</v>
+      </c>
+      <c r="C52" s="12">
+        <f t="shared" si="12"/>
+        <v>84491.4864242982</v>
+      </c>
+      <c r="D52" s="12">
+        <f t="shared" si="12"/>
+        <v>125000</v>
+      </c>
+      <c r="E52" s="12">
+        <f t="shared" si="12"/>
+        <v>4224574.32121491</v>
+      </c>
+      <c r="F52" s="12">
+        <f t="shared" si="12"/>
+        <v>6250000</v>
+      </c>
+      <c r="G52" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>B1</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="K52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="5" t="str">
+        <f>A14</f>
+        <v>U3</v>
+      </c>
+      <c r="B53" s="5">
+        <f t="shared" ref="B53:G53" si="13">B14</f>
+        <v>60</v>
+      </c>
+      <c r="C53" s="12">
+        <f t="shared" si="13"/>
+        <v>30100.0920386562</v>
+      </c>
+      <c r="D53" s="12">
+        <f t="shared" si="13"/>
+        <v>60000</v>
+      </c>
+      <c r="E53" s="12">
+        <f t="shared" si="13"/>
+        <v>1806005.52231937</v>
+      </c>
+      <c r="F53" s="12">
+        <f t="shared" si="13"/>
+        <v>3600000</v>
+      </c>
+      <c r="G53" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>B1</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="K53" s="1" t="str">
+        <f>J6</f>
+        <v>U4</v>
+      </c>
+      <c r="L53" s="1">
+        <f t="shared" ref="L53:Q53" si="14">K6</f>
+        <v>0.1</v>
+      </c>
+      <c r="M53" s="1">
+        <f t="shared" si="14"/>
+        <v>0.1</v>
+      </c>
+      <c r="N53" s="1">
+        <f t="shared" si="14"/>
+        <v>0.1</v>
+      </c>
+      <c r="O53" s="1">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="P53" s="1">
+        <f t="shared" si="14"/>
+        <v>0.001</v>
+      </c>
+      <c r="Q53" s="32">
+        <f t="shared" si="14"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="5" t="str">
+        <f>A22</f>
+        <v>B2</v>
+      </c>
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
+      <c r="C54" s="12">
+        <f>E22</f>
+        <v>38250000</v>
+      </c>
+      <c r="D54" s="12">
+        <f>I54*$O$53</f>
+        <v>43460000</v>
+      </c>
+      <c r="E54" s="12">
+        <f>C54*B54</f>
+        <v>38250000</v>
+      </c>
+      <c r="F54" s="12">
+        <f>B54*D54</f>
+        <v>43460000</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="7">
+        <f>G22</f>
+        <v>434.6</v>
+      </c>
+      <c r="I54" s="7">
+        <f>ROUNDDOWN(H54/$P$53,0)</f>
+        <v>434600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="5" t="str">
+        <f>A23</f>
+        <v>B3</v>
+      </c>
+      <c r="B55" s="5">
+        <v>1</v>
+      </c>
+      <c r="C55" s="12">
+        <f>E23</f>
+        <v>38250000</v>
+      </c>
+      <c r="D55" s="12">
+        <f>I55*$O$53</f>
+        <v>43460000</v>
+      </c>
+      <c r="E55" s="12">
+        <f t="shared" ref="E54:E56" si="15">C55*B55</f>
+        <v>38250000</v>
+      </c>
+      <c r="F55" s="12">
+        <f t="shared" ref="F54:F56" si="16">B55*D55</f>
+        <v>43460000</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="7">
+        <f>G23</f>
+        <v>434.6</v>
+      </c>
+      <c r="I55" s="7">
+        <f>ROUNDDOWN(H55/$P$53,0)</f>
+        <v>434600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="5" t="str">
+        <f>A24</f>
+        <v>B4</v>
+      </c>
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="C56" s="12">
+        <f>E24</f>
+        <v>31684307.4091118</v>
+      </c>
+      <c r="D56" s="12">
+        <f>I56*$O$53</f>
+        <v>36000000</v>
+      </c>
+      <c r="E56" s="12">
+        <f t="shared" si="15"/>
+        <v>31684307.4091118</v>
+      </c>
+      <c r="F56" s="12">
+        <f>B56*D56</f>
+        <v>36000000</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="7">
+        <f>G24</f>
+        <v>360</v>
+      </c>
+      <c r="I56" s="7">
+        <f>ROUNDDOWN(H56/$P$53,0)</f>
+        <v>360000</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="J17:P17"/>
     <mergeCell ref="J20:P20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/database/test.xlsx
+++ b/database/test.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITU\S5\architecture-logiciel\foam\database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B650D39-AEA7-4678-B144-2B31C34A4192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,14 +33,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -216,17 +222,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="7">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;???\ _€_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??.0\ _€_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;???\ _€_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??.0\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,346 +252,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -705,265 +378,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -976,88 +414,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1315,44 +693,44 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="16.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="27.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="19.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="13.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="9.42857142857143" customWidth="1"/>
-    <col min="8" max="9" width="17.4285714285714" customWidth="1"/>
-    <col min="10" max="10" width="13.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="15.5714285714286" customWidth="1"/>
-    <col min="14" max="14" width="26.1428571428571" customWidth="1"/>
-    <col min="15" max="15" width="27.7142857142857" customWidth="1"/>
-    <col min="16" max="16" width="27.4285714285714" customWidth="1"/>
-    <col min="17" max="17" width="29.7142857142857" customWidth="1"/>
-    <col min="18" max="18" width="26.8571428571429" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="26.140625" customWidth="1"/>
+    <col min="15" max="15" width="27.7109375" customWidth="1"/>
+    <col min="16" max="16" width="27.42578125" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" customWidth="1"/>
+    <col min="18" max="18" width="26.85546875" customWidth="1"/>
     <col min="19" max="19" width="25" customWidth="1"/>
-    <col min="20" max="20" width="35.7142857142857" customWidth="1"/>
-    <col min="21" max="21" width="21.4285714285714" customWidth="1"/>
-    <col min="22" max="22" width="12.7142857142857"/>
+    <col min="20" max="20" width="35.7109375" customWidth="1"/>
+    <col min="21" max="21" width="21.42578125" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1371,10 +749,10 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -1395,216 +773,216 @@
       <c r="O2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>10.6</v>
       </c>
-      <c r="C3" s="3">
-        <v>8.2</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D3" s="2">
         <v>5</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f>38250000</f>
         <v>38250000</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f>B3*C3*D3</f>
         <v>434.6</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f>G3*2%</f>
-        <v>8.692</v>
+        <v>8.6920000000000002</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>2</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>1.6</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>0.3</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <v>125000</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="9">
         <f>K3*L3*M3</f>
         <v>0.96</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <f>N3/(K3*L3*M3)</f>
-        <v>130208.333333333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>130208.33333333299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>10.6</v>
       </c>
-      <c r="C4" s="3">
-        <v>8.2</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:E6" si="0">38250000</f>
         <v>38250000</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f t="shared" ref="G4:G6" si="1">B4*C4*D4</f>
         <v>434.6</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f t="shared" ref="H4:H6" si="2">G4*2%</f>
-        <v>8.692</v>
+        <v>8.6920000000000002</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>2</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>1.4</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>0.25</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>100000</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="9">
         <f t="shared" ref="O4:O6" si="3">K4*L4*M4</f>
         <v>0.7</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <f t="shared" ref="P4:P6" si="4">N4/(K4*L4*M4)</f>
-        <v>142857.142857143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>142857.14285714299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>10.6</v>
       </c>
-      <c r="C5" s="3">
-        <v>8.2</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>38250000</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" si="1"/>
         <v>434.6</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f t="shared" si="2"/>
-        <v>8.692</v>
+        <v>8.6920000000000002</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>1.9</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>0.9</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>0.2</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <v>60000</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="9">
         <f t="shared" si="3"/>
-        <v>0.342</v>
-      </c>
-      <c r="P5" s="3">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="P5" s="2">
         <f t="shared" si="4"/>
         <v>175438.596491228</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>10.6</v>
       </c>
-      <c r="C6" s="3">
-        <v>8.2</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>38250000</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="1"/>
         <v>434.6</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f t="shared" si="2"/>
-        <v>8.692</v>
+        <v>8.6920000000000002</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>0.1</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>0.1</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>0.1</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>100</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="9">
         <f t="shared" si="3"/>
-        <v>0.001</v>
-      </c>
-      <c r="P6" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="P6" s="2">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1614,25 +992,25 @@
       <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="str">
         <f>J15</f>
         <v>U1</v>
@@ -1641,19 +1019,19 @@
         <f>L15</f>
         <v>50</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <f>O15</f>
         <v>84491.4864242982</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="3">
         <f>P15</f>
         <v>125000</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="4">
         <f>$B13*C13</f>
-        <v>4224574.32121491</v>
-      </c>
-      <c r="F13" s="8">
+        <v>4224574.3212149097</v>
+      </c>
+      <c r="F13" s="4">
         <f>$B13*D13</f>
         <v>6250000</v>
       </c>
@@ -1661,15 +1039,15 @@
         <f>N15</f>
         <v>B1</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="1" t="str">
@@ -1680,19 +1058,19 @@
         <f>L16</f>
         <v>60</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <f>O16</f>
-        <v>30100.0920386562</v>
-      </c>
-      <c r="D14" s="7">
+        <v>30100.092038656199</v>
+      </c>
+      <c r="D14" s="3">
         <f>P16</f>
         <v>60000</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="4">
         <f>$B14*C14</f>
-        <v>1806005.52231937</v>
-      </c>
-      <c r="F14" s="8">
+        <v>1806005.5223193699</v>
+      </c>
+      <c r="F14" s="4">
         <f>$B14*D14</f>
         <v>3600000</v>
       </c>
@@ -1700,25 +1078,25 @@
         <f>N16</f>
         <v>B1</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="M14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="18" t="s">
+      <c r="N14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="R14" t="s">
@@ -1741,86 +1119,86 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="4">
         <f>O3</f>
         <v>0.96</v>
       </c>
       <c r="L15" s="1">
         <v>50</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="11">
         <f>K15*L15</f>
         <v>48</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="4">
         <f>O3*$E$3/$G$3</f>
         <v>84491.4864242982</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="3">
         <f>N3</f>
         <v>125000</v>
       </c>
-      <c r="R15" s="34">
+      <c r="R15" s="16">
         <f>E3</f>
         <v>38250000</v>
       </c>
-      <c r="S15" s="34">
+      <c r="S15" s="16">
         <f>P19</f>
-        <v>31684307.4091118</v>
-      </c>
-      <c r="T15" s="35" cm="1">
+        <v>31684307.409111802</v>
+      </c>
+      <c r="T15" s="17" cm="1">
         <f t="array" ref="T15">SUMPRODUCT(L15:L16,O15:O16)</f>
-        <v>6030579.84353429</v>
-      </c>
-      <c r="U15" s="34">
+        <v>6030579.8435342899</v>
+      </c>
+      <c r="U15" s="16">
         <f>S15+T15</f>
-        <v>37714887.2526461</v>
-      </c>
-      <c r="V15" s="34">
+        <v>37714887.252646104</v>
+      </c>
+      <c r="V15" s="16">
         <f>R15-U15</f>
-        <v>535112.747353882</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>535112.74735388195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="13">
         <f>O5</f>
-        <v>0.342</v>
-      </c>
-      <c r="L16" s="22">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="L16" s="12">
         <v>60</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="14">
         <f>K16*L16</f>
         <v>20.52</v>
       </c>
-      <c r="N16" s="22" t="s">
+      <c r="N16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O16" s="25">
+      <c r="O16" s="13">
         <f>O5*$E$3/$G$3</f>
-        <v>30100.0920386562</v>
-      </c>
-      <c r="P16" s="7">
+        <v>30100.092038656199</v>
+      </c>
+      <c r="P16" s="3">
         <f>N5</f>
         <v>60000</v>
       </c>
@@ -1829,82 +1207,82 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-    </row>
-    <row r="18" spans="10:16">
-      <c r="J18" s="19" t="s">
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="J18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="M18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N18" s="18" t="s">
+      <c r="N18" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="18" t="s">
+      <c r="O18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="P18" s="20" t="s">
+      <c r="P18" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="10:16">
-      <c r="J19" s="27" t="s">
+    <row r="19" spans="1:16">
+      <c r="J19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="7">
         <f>G3</f>
         <v>434.6</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="12">
         <v>9</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="12">
         <v>8</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19" s="12">
         <v>5</v>
       </c>
-      <c r="O19" s="22">
+      <c r="O19" s="12">
         <f>L19*M19*N19</f>
         <v>360</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="3">
         <f>O19*E3/G3</f>
-        <v>31684307.4091118</v>
+        <v>31684307.409111802</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="29" t="s">
+      <c r="J20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="31"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="24"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
@@ -1925,13 +1303,13 @@
       <c r="F21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -1949,7 +1327,7 @@
       <c r="O21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1957,85 +1335,85 @@
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>10.6</v>
       </c>
-      <c r="C22" s="3">
-        <v>8.2</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D22" s="2">
         <v>5</v>
       </c>
-      <c r="E22" s="3">
-        <f t="shared" ref="E22:E24" si="5">38250000</f>
+      <c r="E22" s="2">
+        <f t="shared" ref="E22:E23" si="5">38250000</f>
         <v>38250000</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <f t="shared" ref="G22:G24" si="6">B22*C22*D22</f>
         <v>434.6</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <f t="shared" ref="H22:H24" si="7">G22*2%</f>
-        <v>8.692</v>
-      </c>
-      <c r="J22" s="4">
+        <v>8.6920000000000002</v>
+      </c>
+      <c r="J22" s="3">
         <f>H3</f>
-        <v>8.692</v>
-      </c>
-      <c r="K22" s="4">
+        <v>8.6920000000000002</v>
+      </c>
+      <c r="K22" s="3">
         <f>G3-J22</f>
-        <v>425.908</v>
+        <v>425.90800000000002</v>
       </c>
       <c r="L22" s="1">
         <f>O19</f>
         <v>360</v>
       </c>
-      <c r="M22" s="21">
+      <c r="M22" s="11">
         <f>SUM(M15:M16)</f>
         <v>68.52</v>
       </c>
-      <c r="N22" s="21">
+      <c r="N22" s="11">
         <f>L22+M22</f>
         <v>428.52</v>
       </c>
-      <c r="O22" s="21">
+      <c r="O22" s="11">
         <f>G3-N22</f>
-        <v>6.07999999999993</v>
+        <v>6.0799999999999299</v>
       </c>
       <c r="P22" s="1" t="str">
         <f>IF(N22&gt;=K22,"oui","non")</f>
         <v>oui</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>10.6</v>
       </c>
-      <c r="C23" s="3">
-        <v>8.2</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D23" s="2">
         <v>5</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <f t="shared" si="5"/>
         <v>38250000</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <f t="shared" si="6"/>
         <v>434.6</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <f t="shared" si="7"/>
-        <v>8.692</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>8.6920000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -2048,247 +1426,247 @@
       <c r="D24" s="1">
         <v>5</v>
       </c>
-      <c r="E24" s="3">
-        <v>31684307.4091118</v>
+      <c r="E24" s="2">
+        <v>31684307.409111802</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <f t="shared" si="6"/>
         <v>360</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <f t="shared" si="7"/>
         <v>7.2</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="9" t="s">
+    <row r="25" spans="1:16">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:16">
+      <c r="A30" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="11">
+    <row r="31" spans="1:16">
+      <c r="A31" s="7">
         <f>SUM(E33:E34)</f>
-        <v>6030579.84353429</v>
-      </c>
-      <c r="B31" s="11">
+        <v>6030579.8435342899</v>
+      </c>
+      <c r="B31" s="7">
         <f>SUM(F33:F34)</f>
         <v>9850000</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="7">
         <f>B31-A31</f>
-        <v>3819420.15646571</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="5" t="s">
+        <v>3819420.1564657101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="5" t="str">
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="str">
         <f>A13</f>
         <v>U1</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="1">
         <f t="shared" ref="B33:G33" si="8">B13</f>
         <v>50</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="8">
         <f t="shared" si="8"/>
         <v>84491.4864242982</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="8">
         <f t="shared" si="8"/>
         <v>125000</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="8">
         <f t="shared" si="8"/>
-        <v>4224574.32121491</v>
-      </c>
-      <c r="F33" s="12">
+        <v>4224574.3212149097</v>
+      </c>
+      <c r="F33" s="8">
         <f t="shared" si="8"/>
         <v>6250000</v>
       </c>
-      <c r="G33" s="5" t="str">
+      <c r="G33" s="1" t="str">
         <f t="shared" si="8"/>
         <v>B1</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="5" t="str">
+    <row r="34" spans="1:17">
+      <c r="A34" s="1" t="str">
         <f>A14</f>
         <v>U3</v>
       </c>
-      <c r="B34" s="5">
-        <f>B14</f>
+      <c r="B34" s="1">
+        <f t="shared" ref="B34:G34" si="9">B14</f>
         <v>60</v>
       </c>
-      <c r="C34" s="12">
-        <f>C14</f>
-        <v>30100.0920386562</v>
-      </c>
-      <c r="D34" s="12">
-        <f>D14</f>
+      <c r="C34" s="8">
+        <f t="shared" si="9"/>
+        <v>30100.092038656199</v>
+      </c>
+      <c r="D34" s="8">
+        <f t="shared" si="9"/>
         <v>60000</v>
       </c>
-      <c r="E34" s="12">
-        <f>E14</f>
-        <v>1806005.52231937</v>
-      </c>
-      <c r="F34" s="12">
-        <f>F14</f>
+      <c r="E34" s="8">
+        <f t="shared" si="9"/>
+        <v>1806005.5223193699</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="9"/>
         <v>3600000</v>
       </c>
-      <c r="G34" s="5" t="str">
-        <f>G14</f>
+      <c r="G34" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>B1</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:17">
+      <c r="A37" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:17">
+      <c r="A38" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="11">
+    <row r="39" spans="1:17">
+      <c r="A39" s="7">
         <f>SUM(E41:E45)</f>
         <v>114214887.252646</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="7">
         <f>SUM(F41:F45)</f>
         <v>225370000</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="7">
         <f>B39-A39</f>
         <v>111155112.747354</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="K40" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="5" t="str">
+      <c r="A41" s="1" t="str">
         <f>A13</f>
         <v>U1</v>
       </c>
-      <c r="B41" s="5">
-        <f t="shared" ref="B41:G41" si="9">B13</f>
+      <c r="B41" s="1">
+        <f t="shared" ref="B41:G41" si="10">B13</f>
         <v>50</v>
       </c>
-      <c r="C41" s="12">
-        <f t="shared" si="9"/>
+      <c r="C41" s="8">
+        <f t="shared" si="10"/>
         <v>84491.4864242982</v>
       </c>
-      <c r="D41" s="12">
-        <f t="shared" si="9"/>
+      <c r="D41" s="8">
+        <f t="shared" si="10"/>
         <v>125000</v>
       </c>
-      <c r="E41" s="12">
-        <f t="shared" si="9"/>
-        <v>4224574.32121491</v>
-      </c>
-      <c r="F41" s="12">
-        <f t="shared" si="9"/>
+      <c r="E41" s="8">
+        <f t="shared" si="10"/>
+        <v>4224574.3212149097</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="10"/>
         <v>6250000</v>
       </c>
-      <c r="G41" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="G41" s="1" t="str">
+        <f t="shared" si="10"/>
         <v>B1</v>
       </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
       <c r="K41" s="1" t="s">
         <v>8</v>
       </c>
@@ -2307,267 +1685,267 @@
       <c r="P41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q41" s="2" t="s">
+      <c r="Q41" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="5" t="str">
+      <c r="A42" s="1" t="str">
         <f>A14</f>
         <v>U3</v>
       </c>
-      <c r="B42" s="5">
-        <f t="shared" ref="B42:G42" si="10">B14</f>
+      <c r="B42" s="1">
+        <f t="shared" ref="B42:G42" si="11">B14</f>
         <v>60</v>
       </c>
-      <c r="C42" s="12">
-        <f t="shared" si="10"/>
-        <v>30100.0920386562</v>
-      </c>
-      <c r="D42" s="12">
-        <f t="shared" si="10"/>
+      <c r="C42" s="8">
+        <f t="shared" si="11"/>
+        <v>30100.092038656199</v>
+      </c>
+      <c r="D42" s="8">
+        <f t="shared" si="11"/>
         <v>60000</v>
       </c>
-      <c r="E42" s="12">
-        <f t="shared" si="10"/>
-        <v>1806005.52231937</v>
-      </c>
-      <c r="F42" s="12">
-        <f t="shared" si="10"/>
+      <c r="E42" s="8">
+        <f t="shared" si="11"/>
+        <v>1806005.5223193699</v>
+      </c>
+      <c r="F42" s="8">
+        <f t="shared" si="11"/>
         <v>3600000</v>
       </c>
-      <c r="G42" s="5" t="str">
-        <f t="shared" si="10"/>
+      <c r="G42" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>B1</v>
       </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
       <c r="K42" s="1" t="str">
         <f>J5</f>
         <v>U3</v>
       </c>
-      <c r="L42" s="32">
-        <f t="shared" ref="L42:Q42" si="11">K5</f>
+      <c r="L42" s="8">
+        <f t="shared" ref="L42:Q42" si="12">K5</f>
         <v>1.9</v>
       </c>
-      <c r="M42" s="32">
-        <f t="shared" si="11"/>
+      <c r="M42" s="8">
+        <f t="shared" si="12"/>
         <v>0.9</v>
       </c>
-      <c r="N42" s="32">
-        <f t="shared" si="11"/>
+      <c r="N42" s="8">
+        <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
-      <c r="O42" s="32">
-        <f t="shared" si="11"/>
+      <c r="O42" s="8">
+        <f t="shared" si="12"/>
         <v>60000</v>
       </c>
-      <c r="P42" s="33">
-        <f t="shared" si="11"/>
-        <v>0.342</v>
-      </c>
-      <c r="Q42" s="32">
-        <f t="shared" si="11"/>
+      <c r="P42" s="15">
+        <f t="shared" si="12"/>
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="Q42" s="8">
+        <f t="shared" si="12"/>
         <v>175438.596491228</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="5" t="str">
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="str">
         <f>A22</f>
         <v>B2</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="1">
         <v>1</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="3">
         <f>E22</f>
         <v>38250000</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="3">
         <f>I43*$O$42</f>
         <v>76200000</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="3">
         <f>C43*B43</f>
         <v>38250000</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="3">
         <f>B43*D43</f>
         <v>76200000</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="7">
+      <c r="G43" s="1"/>
+      <c r="H43" s="3">
         <f>G22</f>
         <v>434.6</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="3">
         <f>ROUNDDOWN(H43/$P$42,0)</f>
         <v>1270</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="5" t="str">
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="str">
         <f>A23</f>
         <v>B3</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="1">
         <v>1</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="3">
         <f>E23</f>
         <v>38250000</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="3">
         <f>I44*$O$42</f>
         <v>76200000</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="3">
         <f>C44*B44</f>
         <v>38250000</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="3">
         <f>B44*D44</f>
         <v>76200000</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="7">
+      <c r="G44" s="1"/>
+      <c r="H44" s="3">
         <f>G23</f>
         <v>434.6</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="3">
         <f>ROUNDDOWN(H44/$P$42,0)</f>
         <v>1270</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="5" t="str">
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="str">
         <f>A24</f>
         <v>B4</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="1">
         <v>1</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="3">
         <f>E24</f>
-        <v>31684307.4091118</v>
-      </c>
-      <c r="D45" s="7">
+        <v>31684307.409111802</v>
+      </c>
+      <c r="D45" s="3">
         <f>I45*$O$42</f>
         <v>63120000</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="3">
         <f>C45*B45</f>
-        <v>31684307.4091118</v>
-      </c>
-      <c r="F45" s="7">
+        <v>31684307.409111802</v>
+      </c>
+      <c r="F45" s="3">
         <f>B45*D45</f>
         <v>63120000</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="3">
         <f>G24</f>
         <v>360</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="3">
         <f>ROUNDDOWN(H45/$P$42,0)</f>
         <v>1052</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:17">
+      <c r="A48" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="10" t="s">
+    <row r="49" spans="1:17">
+      <c r="A49" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="11">
+    <row r="50" spans="1:17">
+      <c r="A50" s="7">
         <f>SUM(E52:E56)</f>
         <v>114214887.252646</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="7">
         <f>SUM(F52:F56)</f>
         <v>132770000</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="7">
         <f>B50-A50</f>
         <v>18555112.7473539</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:17">
+      <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K51" s="9" t="s">
+      <c r="K51" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="5" t="str">
+      <c r="A52" s="1" t="str">
         <f>A13</f>
         <v>U1</v>
       </c>
-      <c r="B52" s="5">
-        <f t="shared" ref="B52:G52" si="12">B13</f>
+      <c r="B52" s="1">
+        <f t="shared" ref="B52:G52" si="13">B13</f>
         <v>50</v>
       </c>
-      <c r="C52" s="12">
-        <f t="shared" si="12"/>
+      <c r="C52" s="8">
+        <f t="shared" si="13"/>
         <v>84491.4864242982</v>
       </c>
-      <c r="D52" s="12">
-        <f t="shared" si="12"/>
+      <c r="D52" s="8">
+        <f t="shared" si="13"/>
         <v>125000</v>
       </c>
-      <c r="E52" s="12">
-        <f t="shared" si="12"/>
-        <v>4224574.32121491</v>
-      </c>
-      <c r="F52" s="12">
-        <f t="shared" si="12"/>
+      <c r="E52" s="8">
+        <f t="shared" si="13"/>
+        <v>4224574.3212149097</v>
+      </c>
+      <c r="F52" s="8">
+        <f t="shared" si="13"/>
         <v>6250000</v>
       </c>
-      <c r="G52" s="5" t="str">
-        <f t="shared" si="12"/>
+      <c r="G52" s="1" t="str">
+        <f t="shared" si="13"/>
         <v>B1</v>
       </c>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
       <c r="K52" s="1" t="s">
         <v>8</v>
       </c>
@@ -2586,170 +1964,170 @@
       <c r="P52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q52" s="2" t="s">
+      <c r="Q52" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:17">
-      <c r="A53" s="5" t="str">
+      <c r="A53" s="1" t="str">
         <f>A14</f>
         <v>U3</v>
       </c>
-      <c r="B53" s="5">
-        <f t="shared" ref="B53:G53" si="13">B14</f>
+      <c r="B53" s="1">
+        <f t="shared" ref="B53:G53" si="14">B14</f>
         <v>60</v>
       </c>
-      <c r="C53" s="12">
-        <f t="shared" si="13"/>
-        <v>30100.0920386562</v>
-      </c>
-      <c r="D53" s="12">
-        <f t="shared" si="13"/>
+      <c r="C53" s="8">
+        <f t="shared" si="14"/>
+        <v>30100.092038656199</v>
+      </c>
+      <c r="D53" s="8">
+        <f t="shared" si="14"/>
         <v>60000</v>
       </c>
-      <c r="E53" s="12">
-        <f t="shared" si="13"/>
-        <v>1806005.52231937</v>
-      </c>
-      <c r="F53" s="12">
-        <f t="shared" si="13"/>
+      <c r="E53" s="8">
+        <f t="shared" si="14"/>
+        <v>1806005.5223193699</v>
+      </c>
+      <c r="F53" s="8">
+        <f t="shared" si="14"/>
         <v>3600000</v>
       </c>
-      <c r="G53" s="5" t="str">
-        <f t="shared" si="13"/>
+      <c r="G53" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>B1</v>
       </c>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
       <c r="K53" s="1" t="str">
         <f>J6</f>
         <v>U4</v>
       </c>
       <c r="L53" s="1">
-        <f t="shared" ref="L53:Q53" si="14">K6</f>
+        <f t="shared" ref="L53:Q53" si="15">K6</f>
         <v>0.1</v>
       </c>
       <c r="M53" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="P53" s="1">
-        <f t="shared" si="14"/>
-        <v>0.001</v>
-      </c>
-      <c r="Q53" s="32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q53" s="8">
+        <f t="shared" si="15"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="5" t="str">
+    <row r="54" spans="1:17">
+      <c r="A54" s="1" t="str">
         <f>A22</f>
         <v>B2</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="1">
         <v>1</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="8">
         <f>E22</f>
         <v>38250000</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="8">
         <f>I54*$O$53</f>
         <v>43460000</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="8">
         <f>C54*B54</f>
         <v>38250000</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="8">
         <f>B54*D54</f>
         <v>43460000</v>
       </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="7">
+      <c r="G54" s="1"/>
+      <c r="H54" s="3">
         <f>G22</f>
         <v>434.6</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="3">
         <f>ROUNDDOWN(H54/$P$53,0)</f>
         <v>434600</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="5" t="str">
+    <row r="55" spans="1:17">
+      <c r="A55" s="1" t="str">
         <f>A23</f>
         <v>B3</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="1">
         <v>1</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="8">
         <f>E23</f>
         <v>38250000</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="8">
         <f>I55*$O$53</f>
         <v>43460000</v>
       </c>
-      <c r="E55" s="12">
-        <f t="shared" ref="E54:E56" si="15">C55*B55</f>
+      <c r="E55" s="8">
+        <f t="shared" ref="E55:E56" si="16">C55*B55</f>
         <v>38250000</v>
       </c>
-      <c r="F55" s="12">
-        <f t="shared" ref="F54:F56" si="16">B55*D55</f>
+      <c r="F55" s="8">
+        <f t="shared" ref="F55" si="17">B55*D55</f>
         <v>43460000</v>
       </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="7">
+      <c r="G55" s="1"/>
+      <c r="H55" s="3">
         <f>G23</f>
         <v>434.6</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="3">
         <f>ROUNDDOWN(H55/$P$53,0)</f>
         <v>434600</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="5" t="str">
+    <row r="56" spans="1:17">
+      <c r="A56" s="1" t="str">
         <f>A24</f>
         <v>B4</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="1">
         <v>1</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="8">
         <f>E24</f>
-        <v>31684307.4091118</v>
-      </c>
-      <c r="D56" s="12">
+        <v>31684307.409111802</v>
+      </c>
+      <c r="D56" s="8">
         <f>I56*$O$53</f>
         <v>36000000</v>
       </c>
-      <c r="E56" s="12">
-        <f t="shared" si="15"/>
-        <v>31684307.4091118</v>
-      </c>
-      <c r="F56" s="12">
+      <c r="E56" s="8">
+        <f t="shared" si="16"/>
+        <v>31684307.409111802</v>
+      </c>
+      <c r="F56" s="8">
         <f>B56*D56</f>
         <v>36000000</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="3">
         <f>G24</f>
         <v>360</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="3">
         <f>ROUNDDOWN(H56/$P$53,0)</f>
         <v>360000</v>
       </c>
@@ -2763,6 +2141,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/database/test.xlsx
+++ b/database/test.xlsx
@@ -8,27 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITU\S5\architecture-logiciel\foam\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B650D39-AEA7-4678-B144-2B31C34A4192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B41C3D9-E22D-4D1E-9457-896AC5E3666A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -55,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="65">
   <si>
     <t>Bloc</t>
   </si>
@@ -217,6 +205,39 @@
   </si>
   <si>
     <t>Forme usuelle la plus petite</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Longueur</t>
+  </si>
+  <si>
+    <t>Largeur</t>
+  </si>
+  <si>
+    <t>Hauteur</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Marge (30%)</t>
+  </si>
+  <si>
+    <t>Minimum acceptable</t>
+  </si>
+  <si>
+    <t>volume total</t>
+  </si>
+  <si>
+    <t>Somme volume</t>
+  </si>
+  <si>
+    <t>Validité</t>
+  </si>
+  <si>
+    <t>Transformation 2</t>
   </si>
 </sst>
 </file>
@@ -224,12 +245,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;???\ _€_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??.0\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;???\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??.0\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +269,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -381,27 +408,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -421,6 +447,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -701,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -818,7 +856,7 @@
       <c r="N3" s="2">
         <v>125000</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="8">
         <f>K3*L3*M3</f>
         <v>0.96</v>
       </c>
@@ -868,7 +906,7 @@
       <c r="N4" s="2">
         <v>100000</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="8">
         <f t="shared" ref="O4:O6" si="3">K4*L4*M4</f>
         <v>0.7</v>
       </c>
@@ -918,7 +956,7 @@
       <c r="N5" s="2">
         <v>60000</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="8">
         <f t="shared" si="3"/>
         <v>0.34200000000000003</v>
       </c>
@@ -968,7 +1006,7 @@
       <c r="N6" s="2">
         <v>100</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="8">
         <f t="shared" si="3"/>
         <v>1E-3</v>
       </c>
@@ -1004,11 +1042,11 @@
       <c r="G12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="1" t="str">
@@ -1039,15 +1077,15 @@
         <f>N15</f>
         <v>B1</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="1" t="str">
@@ -1078,22 +1116,22 @@
         <f>N16</f>
         <v>B1</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="N14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="O14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P14" s="1" t="s">
@@ -1133,7 +1171,7 @@
       <c r="L15" s="1">
         <v>50</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="10">
         <f>K15*L15</f>
         <v>48</v>
       </c>
@@ -1148,23 +1186,23 @@
         <f>N3</f>
         <v>125000</v>
       </c>
-      <c r="R15" s="16">
+      <c r="R15" s="15">
         <f>E3</f>
         <v>38250000</v>
       </c>
-      <c r="S15" s="16">
+      <c r="S15" s="15">
         <f>P19</f>
         <v>31684307.409111802</v>
       </c>
-      <c r="T15" s="17" cm="1">
+      <c r="T15" s="16" cm="1">
         <f t="array" ref="T15">SUMPRODUCT(L15:L16,O15:O16)</f>
         <v>6030579.8435342899</v>
       </c>
-      <c r="U15" s="16">
+      <c r="U15" s="15">
         <f>S15+T15</f>
         <v>37714887.252646104</v>
       </c>
-      <c r="V15" s="16">
+      <c r="V15" s="15">
         <f>R15-U15</f>
         <v>535112.74735388195</v>
       </c>
@@ -1177,24 +1215,24 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="12">
         <f>O5</f>
         <v>0.34200000000000003</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="11">
         <v>60</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="13">
         <f>K16*L16</f>
         <v>20.52</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="N16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="12">
         <f>O5*$E$3/$G$3</f>
         <v>30100.092038656199</v>
       </c>
@@ -1211,57 +1249,57 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="N18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="10" t="s">
+      <c r="O18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="P18" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="11" t="s">
         <v>12</v>
       </c>
       <c r="K19" s="7">
         <f>G3</f>
         <v>434.6</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="11">
         <v>9</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="11">
         <v>8</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="11">
         <v>5</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="11">
         <f>L19*M19*N19</f>
         <v>360</v>
       </c>
@@ -1274,15 +1312,15 @@
       <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="24"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="23"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
@@ -1369,15 +1407,15 @@
         <f>O19</f>
         <v>360</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="10">
         <f>SUM(M15:M16)</f>
         <v>68.52</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="10">
         <f>L22+M22</f>
         <v>428.52</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="10">
         <f>G3-N22</f>
         <v>6.0799999999999299</v>
       </c>
@@ -1523,19 +1561,19 @@
         <f t="shared" ref="B33:G33" si="8">B13</f>
         <v>50</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="2">
         <f t="shared" si="8"/>
         <v>84491.4864242982</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="2">
         <f t="shared" si="8"/>
         <v>125000</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="2">
         <f t="shared" si="8"/>
         <v>4224574.3212149097</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="2">
         <f t="shared" si="8"/>
         <v>6250000</v>
       </c>
@@ -1553,19 +1591,19 @@
         <f t="shared" ref="B34:G34" si="9">B14</f>
         <v>60</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="2">
         <f t="shared" si="9"/>
         <v>30100.092038656199</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="2">
         <f t="shared" si="9"/>
         <v>60000</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="2">
         <f t="shared" si="9"/>
         <v>1806005.5223193699</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="2">
         <f t="shared" si="9"/>
         <v>3600000</v>
       </c>
@@ -1645,19 +1683,19 @@
         <f t="shared" ref="B41:G41" si="10">B13</f>
         <v>50</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="2">
         <f t="shared" si="10"/>
         <v>84491.4864242982</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="2">
         <f t="shared" si="10"/>
         <v>125000</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="2">
         <f t="shared" si="10"/>
         <v>4224574.3212149097</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="2">
         <f t="shared" si="10"/>
         <v>6250000</v>
       </c>
@@ -1698,19 +1736,19 @@
         <f t="shared" ref="B42:G42" si="11">B14</f>
         <v>60</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="2">
         <f t="shared" si="11"/>
         <v>30100.092038656199</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="2">
         <f t="shared" si="11"/>
         <v>60000</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="2">
         <f t="shared" si="11"/>
         <v>1806005.5223193699</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="2">
         <f t="shared" si="11"/>
         <v>3600000</v>
       </c>
@@ -1724,27 +1762,27 @@
         <f>J5</f>
         <v>U3</v>
       </c>
-      <c r="L42" s="8">
+      <c r="L42" s="2">
         <f t="shared" ref="L42:Q42" si="12">K5</f>
         <v>1.9</v>
       </c>
-      <c r="M42" s="8">
+      <c r="M42" s="2">
         <f t="shared" si="12"/>
         <v>0.9</v>
       </c>
-      <c r="N42" s="8">
+      <c r="N42" s="2">
         <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
-      <c r="O42" s="8">
+      <c r="O42" s="2">
         <f t="shared" si="12"/>
         <v>60000</v>
       </c>
-      <c r="P42" s="15">
+      <c r="P42" s="14">
         <f t="shared" si="12"/>
         <v>0.34200000000000003</v>
       </c>
-      <c r="Q42" s="8">
+      <c r="Q42" s="2">
         <f t="shared" si="12"/>
         <v>175438.596491228</v>
       </c>
@@ -1924,19 +1962,19 @@
         <f t="shared" ref="B52:G52" si="13">B13</f>
         <v>50</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="2">
         <f t="shared" si="13"/>
         <v>84491.4864242982</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="2">
         <f t="shared" si="13"/>
         <v>125000</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="2">
         <f t="shared" si="13"/>
         <v>4224574.3212149097</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="2">
         <f t="shared" si="13"/>
         <v>6250000</v>
       </c>
@@ -1977,19 +2015,19 @@
         <f t="shared" ref="B53:G53" si="14">B14</f>
         <v>60</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="2">
         <f t="shared" si="14"/>
         <v>30100.092038656199</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="2">
         <f t="shared" si="14"/>
         <v>60000</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="2">
         <f t="shared" si="14"/>
         <v>1806005.5223193699</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="2">
         <f t="shared" si="14"/>
         <v>3600000</v>
       </c>
@@ -2023,7 +2061,7 @@
         <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
-      <c r="Q53" s="8">
+      <c r="Q53" s="2">
         <f t="shared" si="15"/>
         <v>100000</v>
       </c>
@@ -2036,19 +2074,19 @@
       <c r="B54" s="1">
         <v>1</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="2">
         <f>E22</f>
         <v>38250000</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="2">
         <f>I54*$O$53</f>
         <v>43460000</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="2">
         <f>C54*B54</f>
         <v>38250000</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="2">
         <f>B54*D54</f>
         <v>43460000</v>
       </c>
@@ -2070,19 +2108,19 @@
       <c r="B55" s="1">
         <v>1</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="2">
         <f>E23</f>
         <v>38250000</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="2">
         <f>I55*$O$53</f>
         <v>43460000</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="2">
         <f t="shared" ref="E55:E56" si="16">C55*B55</f>
         <v>38250000</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="2">
         <f t="shared" ref="F55" si="17">B55*D55</f>
         <v>43460000</v>
       </c>
@@ -2104,19 +2142,19 @@
       <c r="B56" s="1">
         <v>1</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="2">
         <f>E24</f>
         <v>31684307.409111802</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="2">
         <f>I56*$O$53</f>
         <v>36000000</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="2">
         <f t="shared" si="16"/>
         <v>31684307.409111802</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F56" s="2">
         <f>B56*D56</f>
         <v>36000000</v>
       </c>
@@ -2142,4 +2180,593 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0B55FC-8A4A-468B-8C59-35825DF8FB97}">
+  <dimension ref="A1:S29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <f>B3*C3*D3</f>
+        <v>20000</v>
+      </c>
+      <c r="F3" s="2">
+        <f>E3*30%</f>
+        <v>6000</v>
+      </c>
+      <c r="G3" s="2">
+        <f>E3-F3</f>
+        <v>14000</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="2">
+        <v>16</v>
+      </c>
+      <c r="M3" s="2">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2">
+        <v>20000</v>
+      </c>
+      <c r="P3" s="8">
+        <f>L3*M3*N3</f>
+        <v>128</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>O3/(L3*M3*N3)</f>
+        <v>156.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <f>B4*C4*D4</f>
+        <v>40000</v>
+      </c>
+      <c r="F4" s="2">
+        <f>E4*30%</f>
+        <v>12000</v>
+      </c>
+      <c r="G4" s="2">
+        <f>E4-F4</f>
+        <v>28000</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2">
+        <v>10</v>
+      </c>
+      <c r="M4" s="2">
+        <v>7</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>12000</v>
+      </c>
+      <c r="P4" s="8">
+        <f>L4*M4*N4</f>
+        <v>70</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" ref="Q4:Q6" si="0">O4/(L4*M4*N4)</f>
+        <v>171.42857142857142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="K5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="2">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>600</v>
+      </c>
+      <c r="P5" s="8">
+        <f>L5*M5*N5</f>
+        <v>5</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="K6" s="1"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="K9" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="K10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="K11" s="1" t="str">
+        <f>$K$3</f>
+        <v>U1</v>
+      </c>
+      <c r="L11" s="4">
+        <f>P3</f>
+        <v>128</v>
+      </c>
+      <c r="M11" s="1">
+        <v>100</v>
+      </c>
+      <c r="N11" s="10">
+        <f>L11*M11</f>
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="K12" s="1" t="str">
+        <f t="shared" ref="K12:K13" si="1">K4</f>
+        <v>U2</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" ref="L12:L13" si="2">P4</f>
+        <v>70</v>
+      </c>
+      <c r="M12" s="1">
+        <v>250</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" ref="N12:N13" si="3">L12*M12</f>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>U3</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M13" s="1">
+        <v>500</v>
+      </c>
+      <c r="N13" s="10">
+        <f>L13*M13</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="K14" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="27"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="K15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="K16" s="1">
+        <v>500</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>3</v>
+      </c>
+      <c r="N16" s="1">
+        <f>K16*L16*M16</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="11:19">
+      <c r="K17" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+    </row>
+    <row r="18" spans="11:19">
+      <c r="K18" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="24"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="10">
+        <f>SUM(N11:N13)+N16</f>
+        <v>35800</v>
+      </c>
+    </row>
+    <row r="20" spans="11:19">
+      <c r="K20" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="P20" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+    </row>
+    <row r="21" spans="11:19">
+      <c r="K21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="11:19">
+      <c r="K22" s="1" t="str">
+        <f>K3</f>
+        <v>U1</v>
+      </c>
+      <c r="L22" s="4">
+        <f>P3</f>
+        <v>128</v>
+      </c>
+      <c r="M22" s="1">
+        <v>42</v>
+      </c>
+      <c r="N22" s="10">
+        <f>L22*M22</f>
+        <v>5376</v>
+      </c>
+      <c r="P22" s="1" t="str">
+        <f>K3</f>
+        <v>U1</v>
+      </c>
+      <c r="Q22" s="4">
+        <f>P3</f>
+        <v>128</v>
+      </c>
+      <c r="R22" s="1">
+        <v>42</v>
+      </c>
+      <c r="S22" s="10">
+        <f>Q22*R22</f>
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="23" spans="11:19">
+      <c r="K23" s="1" t="str">
+        <f t="shared" ref="K23:K24" si="4">K4</f>
+        <v>U2</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" ref="L23:L24" si="5">P4</f>
+        <v>70</v>
+      </c>
+      <c r="M23" s="1">
+        <v>50</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" ref="N23:N24" si="6">L23*M23</f>
+        <v>3500</v>
+      </c>
+      <c r="P23" s="1" t="str">
+        <f t="shared" ref="P23:P24" si="7">K4</f>
+        <v>U2</v>
+      </c>
+      <c r="Q23" s="4">
+        <f t="shared" ref="Q23:Q24" si="8">P4</f>
+        <v>70</v>
+      </c>
+      <c r="R23" s="1">
+        <v>50</v>
+      </c>
+      <c r="S23" s="10">
+        <f t="shared" ref="S23:S24" si="9">Q23*R23</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="24" spans="11:19">
+      <c r="K24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>U3</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N24" s="10">
+        <f t="shared" si="6"/>
+        <v>5000</v>
+      </c>
+      <c r="P24" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>U3</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="S24" s="10">
+        <f t="shared" si="9"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="25" spans="11:19">
+      <c r="K25" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="27"/>
+      <c r="P25" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="27"/>
+    </row>
+    <row r="26" spans="11:19">
+      <c r="K26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="11:19">
+      <c r="K27" s="1">
+        <v>50</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1">
+        <f>K27*L27*M27</f>
+        <v>100</v>
+      </c>
+      <c r="P27" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>2</v>
+      </c>
+      <c r="R27" s="1">
+        <v>3</v>
+      </c>
+      <c r="S27" s="1">
+        <f>P27*Q27*R27</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="11:19">
+      <c r="K28" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="P28" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+    </row>
+    <row r="29" spans="11:19">
+      <c r="K29" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L29" s="24"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="10">
+        <f>SUM(N22:N24)+N27</f>
+        <v>13976</v>
+      </c>
+      <c r="P29" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="10">
+        <f>SUM(S22:S24)+S27</f>
+        <v>16876</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K25:N25"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>